--- a/diem_danh_giay_29_10_24_11_16_52.xlsx
+++ b/diem_danh_giay_29_10_24_11_16_52.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Sổ điểm danh - Lớp WD19310
 Học kỳ Fall 2024 (..../..../....)</t>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>cuongpxph48448@gmail.com</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>PH48612</t>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>duongvaph50573@gmail.com</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>PH50676</t>
@@ -426,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -482,39 +476,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,32 +514,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,8 +560,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,7 +584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,14 +601,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -625,13 +619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,25 +667,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +691,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,55 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,139 +922,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,7 +1483,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1666,8 +1660,8 @@
       <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
+      <c r="E6" s="1">
+        <v>10</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1696,16 +1690,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
+      <c r="E7" s="1">
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1734,16 +1728,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
+      <c r="E8" s="1">
+        <v>7</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1772,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
+      <c r="E9" s="1">
+        <v>10</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1810,16 +1804,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
+      <c r="E10" s="1">
+        <v>10</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1848,15 +1842,15 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
@@ -1886,16 +1880,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
+      <c r="E12" s="1">
+        <v>7</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1924,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
+      <c r="E13" s="1">
+        <v>10</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1962,16 +1956,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
+      <c r="E14" s="1">
+        <v>10</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2000,16 +1994,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
+      <c r="E15" s="1">
+        <v>0</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2038,16 +2032,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
+      <c r="E16" s="1">
+        <v>7</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2076,16 +2070,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
+      <c r="E17" s="1">
+        <v>7</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2114,16 +2108,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
+      <c r="E18" s="1">
+        <v>7</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2152,16 +2146,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
+      <c r="E19" s="1">
+        <v>7</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2190,16 +2184,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
+      <c r="E20" s="1">
+        <v>10</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2228,16 +2222,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
+      <c r="E21" s="1">
+        <v>10</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2266,16 +2260,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
+      <c r="E22" s="1">
+        <v>7</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2304,16 +2298,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
+      <c r="E23" s="1">
+        <v>0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2342,16 +2336,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
+      <c r="E24" s="1">
+        <v>10</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2380,16 +2374,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
+      <c r="E25" s="1">
+        <v>10</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2418,16 +2412,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
+      <c r="E26" s="1">
+        <v>10</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2456,16 +2450,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
+      <c r="E27" s="1">
+        <v>7</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2494,16 +2488,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>31</v>
+      <c r="E28" s="1">
+        <v>7</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2532,16 +2526,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
+      <c r="E29" s="1">
+        <v>7</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2570,16 +2564,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
+      <c r="E30" s="1">
+        <v>10</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2608,16 +2602,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>31</v>
+      <c r="E31" s="1">
+        <v>9</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2646,16 +2640,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
+      <c r="E32" s="1">
+        <v>10</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2684,15 +2678,15 @@
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="1">
         <v>9</v>
       </c>
       <c r="F33" s="1"/>
@@ -2722,16 +2716,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
+      <c r="E34" s="1">
+        <v>10</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2760,16 +2754,16 @@
         <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>31</v>
+      <c r="E35" s="1">
+        <v>0</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2798,16 +2792,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
+      <c r="E36" s="1">
+        <v>10</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2836,16 +2830,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
+      <c r="E37" s="1">
+        <v>10</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2874,16 +2868,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
+      <c r="E38" s="1">
+        <v>7</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2912,16 +2906,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
+      <c r="E39" s="1">
+        <v>10</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2950,16 +2944,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
+      <c r="E40" s="1">
+        <v>10</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2988,16 +2982,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
+      <c r="E41" s="1">
+        <v>10</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3026,16 +3020,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>9</v>
+      <c r="E42" s="1">
+        <v>7</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3064,16 +3058,16 @@
         <v>38</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>31</v>
+      <c r="E43" s="1">
+        <v>0</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3102,16 +3096,16 @@
         <v>39</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
+      <c r="E44" s="1">
+        <v>7</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3137,7 +3131,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3197,11 +3191,11 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="1"/>
@@ -3229,7 +3223,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3259,7 +3253,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3289,7 +3283,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3322,7 +3316,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="52" ht="37.5" customHeight="1" spans="1:26">
       <c r="A52" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
